--- a/home_progect/People_and_zones.xlsx
+++ b/home_progect/People_and_zones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="page1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -443,11 +443,11 @@
       <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.21875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="24.77734375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="37.77734375" customWidth="1" min="4" max="4"/>
+    <col width="8.28515625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="24.7109375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="37.7109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -740,10 +740,10 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="39.109375" customWidth="1" min="2" max="2"/>
+    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="39.140625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -932,12 +932,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28.6640625" customWidth="1" min="1" max="1"/>
+    <col width="28.7109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -948,7 +948,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Лиза</t>
+          <t>Ада</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ада</t>
+          <t>Юра</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ваня</t>
+          <t>Влада</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Артём</t>
+          <t>Степан</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Толис</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Степан</t>
+          <t>Толик</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Аня</t>
+          <t>Олег</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Олег</t>
+          <t>Аня2</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Вова</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Лена</t>
+          <t>Крис</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Катя</t>
+          <t>Лиза</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Маша</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Наргиза</t>
+          <t>Андрей</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Юра</t>
+          <t>Саша</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Шамиль</t>
+          <t>Дима</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Толик</t>
+          <t>Наргиза</t>
         </is>
       </c>
     </row>
